--- a/tools/csv/self_study_sessions.xlsx
+++ b/tools/csv/self_study_sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghao/Documents/code/buddha/wcsbs/tools/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1441AEA-BB19-BB40-9C5E-DE3B46764AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A4859-4537-4947-A7DE-BC200E22F74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1280" windowWidth="32760" windowHeight="19160" xr2:uid="{84032EBB-DD8F-B64E-B5EE-F9BAF3A27392}"/>
+    <workbookView xWindow="3880" yWindow="500" windowWidth="21840" windowHeight="19740" activeTab="1" xr2:uid="{84032EBB-DD8F-B64E-B5EE-F9BAF3A27392}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>【大学演讲01】心灵的诺亚方舟</t>
   </si>
@@ -169,9 +169,6 @@
     <t>信仰与人生——北京大学宗教文化研究院演讲</t>
   </si>
   <si>
-    <t>sessionId</t>
-  </si>
-  <si>
     <t>https://youtu.be/F1GLkQHIIcY</t>
   </si>
   <si>
@@ -215,13 +212,85 @@
   </si>
   <si>
     <t>https://1drv.ms/b/s!AqDx17Q7WfWwdQyHRmYWt2wkbDw</t>
+  </si>
+  <si>
+    <t>红尘苦海    有爱共渡——“上海慈慧公益基金会”成立致辞</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xUEAM2QP8oM&amp;list=PLHUvfASP8AiwSQbkN7HMTSDmqt6MQkTNL&amp;index=7</t>
+  </si>
+  <si>
+    <t>佛教眼中的物质世界——上海复旦大学演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y2uKeXr50nA&amp;list=PLHUvfASP8AiwSQbkN7HMTSDmqt6MQkTNL&amp;index=5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xUuS4qAf66g&amp;list=PLHUvfASP8AiwSQbkN7HMTSDmqt6MQkTNL&amp;index=6</t>
+  </si>
+  <si>
+    <t>佛法的生命科学观——南京大学博士论坛演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ubpDUC2nwho&amp;list=PLHUvfASP8AiwSQbkN7HMTSDmqt6MQkTNL&amp;index=3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UgI3G_utSuA&amp;list=PLHUvfASP8AiwSQbkN7HMTSDmqt6MQkTNL&amp;index=4</t>
+  </si>
+  <si>
+    <t>藏传佛教的思想与现实生活——中国人民大学演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pBEsY6kRWTY&amp;list=PLHUvfASP8AiwSQbkN7HMTSDmqt6MQkTNL&amp;index=2</t>
+  </si>
+  <si>
+    <t>关爱生命    关爱环境——首届“世界关爱论坛”演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9V5KS5kmj00&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=1</t>
+  </si>
+  <si>
+    <t>大乘佛教的现代意义——浙江大学演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xPnZDM3UN64&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ydmz3Coyb4c&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=3</t>
+  </si>
+  <si>
+    <t>新时代需要心灵的教育——华中师范大学演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FVA8ffAzGIQ&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iw3JvZtKC3Q&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解疑除惑    教学相长——华师大政法学院佛学座谈 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qROL3S41jtc&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=5</t>
+  </si>
+  <si>
+    <t>佛教消除烦恼的理论与方法——中山大学演讲</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=si94x80NqM0&amp;list=PLHUvfASP8AiwsggQ7yUQrYNvfl0VMDBQq&amp;index=7</t>
+  </si>
+  <si>
+    <t>session#</t>
+  </si>
+  <si>
+    <t>page#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +302,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,10 +336,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00BAE7D-261B-0040-9E66-0A5190B3D668}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,18 +670,18 @@
     <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -738,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -774,7 +852,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,166 +901,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6B715-F446-7C41-8628-EE7A7E37AB53}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4">
         <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5">
         <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="A6">
         <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="A7">
         <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{9C99A194-6543-ED48-B8ED-B164694E3516}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{5B5A0EBB-42AF-7844-9481-C960E0CB5757}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{8D0551C4-607D-4E49-8A78-B9003F5B60E8}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{8A66104D-1C84-0845-8579-7EB94DA652D0}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{DAA1728C-25F9-0E4B-986A-8B7C525C0904}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{522C0043-A6B1-1549-826F-31FFA9468FC4}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{C03F960C-20BF-8245-9895-F74BBA6B6C03}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{DB609B40-4344-924D-8B41-27D582FF9CAF}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{20592E9B-6E10-4D44-B313-4A07ED339073}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{C99B9A28-AE87-FA4D-B49F-CDAF1D32299B}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{D04E5A02-111E-1847-99F7-BA7C97B7D91B}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{B556B26A-5832-6443-8BC8-E7211D3FA466}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{A6D365AC-F046-DB47-9AA7-4FBFF51D5F00}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>